--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/user_detail.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/user_detail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,104 +436,5554 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>uin</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mobile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>statusCode</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>regCenterId</t>
+          <t>status_code</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>regcntr_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>lastLoginDateTime</t>
+          <t>last_login_method</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>lastLoginMethod</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>110001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5402120055</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Megha Tanga</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>hortense.dauenhauer@xyz.com</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>975366148</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>110002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7314004469</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mahesh Kumar G</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>leonia.bermeo@xyz.com</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>795281431</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10003</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>110003</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7896109326</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Raghav</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bong.bragan@xyz.com</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>739704695</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>110004</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2870381373</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yaswanth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>homer.molinar@xyz.com</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>725028706</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>110005</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7234451333</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mahesh Kumar Panda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>antony.hughes@xyz.com</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>804319687</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10005</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>110006</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3563474484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Anusha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sunkadaeanusha@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9449170382</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>110007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5804057178</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MOSIP User 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>leia.white@xyz.com</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>899884346</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>110008</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1823955503</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Idella Houge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>idella.houge@xyz.com</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>946624002</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>110009</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6028049229</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Shay Vitagliano</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>shay.vitagliano@xyz.com</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>716591396</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10009</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>110010</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2685259089</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Balaji</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>mazie.negley@xyz.com</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>718961429</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10010</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>110011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3834346151</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Magda Godoy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>magda.godoy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>938380935</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10011</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>110012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3493338361</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Himaja</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>anya.adorno@xyz.com</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>911713143</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10011</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>110013</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5145284955</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>darby.self@xyz.com</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>859668671</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10012</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>110014</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4285838622</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Balamurugan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>crissy.flor@xyz.com</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>971384902</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10012</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>110015</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3740463764</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bettina Goering</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>bettina.goering@xyz.com</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>876997632</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10013</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>110016</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6431857131</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dinesh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>hilary.dunklin@xyz.com</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>853451517</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10013</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>110017</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2638207977</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kris Rahm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kris.rahm@xyz.com</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>723337142</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10014</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>110018</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6893364288</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Leona</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ferne.hang@xyz.com</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>733802681</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10014</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>110019</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5251539502</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Arjun</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>leilani.heavener@xyz.com</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>942983448</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10015</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>110020</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7724013062</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MOSIP User 2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>irwin.norwood@xyz.com</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>936463358</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10015</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>110021</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7316931025</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Magdalena Weber</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>magdalena.weber@xyz.com</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>932122450</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>110022</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9137847236</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tabish Khan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>adrienne.hoffman@xyz.com</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>848488000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10003</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>110023</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8428758532</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Adrienne Mcgee</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>adrienne.mcgee@xyz.com</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>894773246</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10004</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>110024</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9804209494</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sreekar</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>amare.coleman@xyz.com</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>956554588</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10003</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>110025</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7105248214</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dawson Ibarra</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>dawson.ibarra@xyz.com</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>765455583</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>110026</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9316557128</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lingam</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>elvis.mcmillan@xyz.com</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>884282274</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>110027</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8103486949</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Omsai</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>steve.george@xyz.com</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>971073663</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>110028</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9601932866</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Colton Elliott</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>colton.elliott@xyz.com</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>809908673</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10009</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>110029</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9317596765</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>carolyn.rodriguez@xyz.com</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>818876429</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10010</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>110030</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9317596768</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>jane.smith@xyz.com</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>818876432</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>110031</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9317596767</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>john.doe@xyz.com</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>818876431</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>110032</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9317596770</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sravan Kalla</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ewan.marsh@xyz.com</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>818876433</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>110033</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9317596771</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nikola Tesla</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>nikola.tesla@xyz.com</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>818876434</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10005</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>110034</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9317596772</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Graham Bell</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>graham.bell@xyz.com</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>818876435</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10005</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>110035</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9317596773</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Albert Miles</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>albert.miles@xyz.com</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>818876436</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10005</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>110036</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9317596774</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Krishnan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>krish@mosip.io</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>818876437</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>110037</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9317596775</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sayeri Mishra</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>elvis.ibarra@xyz.com</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>818876438</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>110038</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9317596776</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rounak Nayak</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>rounak.nayak@mindtree.com</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8763740607</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>110039</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9317596777</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Girish Yarru</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Girish@xyz.com</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>818876440</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>110040</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9317596778</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Shekhar Suman</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Shekhar@xyz.com</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>818876441</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>110041</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9317596779</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nagalakshmi Nithyanandan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nagalakshmi@xyz.com</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>818876442</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>110042</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9317596780</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sowmya Ujjappa Banakar</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sowmya@xyz.com</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>818876443</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>110043</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9317596781</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Horteppa Pujari</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Horteppa@xyz.com</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>818876444</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>110044</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9317596782</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Rishabh Keshari</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Rishabh@xyz.com</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>818876445</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>110045</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9317596783</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Jyoti Prakash Nayak</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Jyoti@xyz.com</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>818876446</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>110046</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9317596784</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mukul Puspam</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mukul@xyz.com</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>818876447</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>110047</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9317596785</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Pranav Kumar</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pranav@xyz.com</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>818876448</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>110048</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9317596786</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sanjay Shivaji Zende</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sanjay@xyz.com</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>818876449</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>110049</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9317596787</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Monobikash Das</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Monobikash@xyz.com</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>818876450</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>110050</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9317596788</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Riju Pragyna Jain</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Riju@xyz.com</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>818876451</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>110051</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9317596789</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ayush Keer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ayush@xyz.com</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>818876452</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>110052</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9317596790</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Karthik Ramanan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Karthik@xyz.com</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>818876453</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>110053</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9317596791</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Anand</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Anand@xyz.com</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>818876454</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>110054</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9317596792</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Technoforte User</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>technoforte@xyz.com</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>818876455</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>110055</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9317596793</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ranjitha Siddegowda</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Ranjitha@xyz.com</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>818876456</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>110056</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9317596794</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Alok Ranjan</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Alok@xyz.com</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>818876457</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>110057</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9317596795</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sudheer Murthy</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Sudheer@xyz.com</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>818876458</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10006</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>110058</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9317596796</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Taleev</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Taleev@xyz.com</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>818876459</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>110059</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9317596797</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brahma</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Brahma@xyz.com</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>818876460</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>110060</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9317596798</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rishabh Keshari</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rishabh@xyz.com</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>818876461</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>110061</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9317596799</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kiranraj</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Kiranraj@xyz.com</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>818876462</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10007</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>110062</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9317596800</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Phillipines User 1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>puser1@xyz.com</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>818876463</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>110063</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9317596801</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Phillipines User 2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>puser2@xyz.com</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>818876464</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>110064</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9317596802</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Phillipines User 3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>puser3@xyz.com</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>818876465</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>110065</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9317596803</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Krishnan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>krishnan@xyz.com</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>818876466</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>110066</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9317596804</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Gururaj 1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Gururaj1@xyz.com</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>818876467</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>110067</v>
+      </c>
+      <c r="C68" t="n">
+        <v>9317596805</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Gururaj 2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Gururaj2@xyz.com</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>818876468</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>110068</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9317596806</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Technoforte User 2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>technoforte2@xyz.com</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>818876469</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>110069</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9317596807</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yadimala</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Yadimala@xyz.com</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>818876470</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>110070</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9317596808</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>818876471</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>110071</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9317596809</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>818876472</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>110072</v>
+      </c>
+      <c r="C73" t="n">
+        <v>9317596810</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>818876473</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>110073</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9317596811</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>818876474</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>110074</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9317596812</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>818876475</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>110075</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9317596813</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>818876476</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>110076</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9317596814</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>818876477</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>110077</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9317596815</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>818876478</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>110078</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9317596816</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>818876479</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>110079</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9317596817</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>818876480</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>110080</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9317596818</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>818876481</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>110081</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9317596819</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>818876482</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>110082</v>
+      </c>
+      <c r="C83" t="n">
+        <v>9317596820</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>818876483</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>33333</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>110083</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9317596821</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>818876484</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>110084</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9317596822</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>818876485</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>110085</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9317596823</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>818876486</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>110086</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9317596824</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>818876487</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>110087</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9317596825</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>818876488</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>110088</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9317596826</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>818876489</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>110089</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9317596827</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>818876490</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>110090</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9317596828</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>818876491</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>110091</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9317596829</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>818876492</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>110092</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9317596830</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>818876493</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>110093</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9317596831</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>818876494</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>110094</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9317596832</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>818876495</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>110095</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9317596833</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>818876496</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>110096</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9317596834</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>818876497</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>110097</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9317596835</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>818876498</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>110098</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9317596836</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>818876499</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>110099</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9317596837</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>818876500</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>110100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9317596838</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>818876501</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>110101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9317596839</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>818876502</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10008</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>110102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9317596840</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>818876503</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>110103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9317596841</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>818876504</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>110104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9317596842</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>818876505</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>110105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9317596843</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>818876506</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>110106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9317596844</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>818876507</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>110107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9317596845</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>818876508</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>110108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9317596846</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>818876509</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>110109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9317596847</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>818876510</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>110110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9317596848</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>818876511</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>110111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9317596849</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>818876512</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>110112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9317596850</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>818876513</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>110113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9317596851</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>818876514</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>110114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9317596852</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>818876515</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>110115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9317596853</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>818876516</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>110116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9317596854</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>818876517</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>110117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9317596855</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>818876518</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>110118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9317596856</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Jane.rose@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>9840587089</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>110119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9317596857</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piyush </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>piyush.singh@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>8277417831</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>110120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9317596858</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suchana </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>suchana.kankonkar@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>9980939623</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>110121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9317596859</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swapna </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>swapna.p@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>9741112380</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
         <v>110122</v>
       </c>
-      <c r="B2" t="n">
-        <v>9317596857</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TestUser</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test.user@technoforte.co.in</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>9220289879</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ACT</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="C123" t="n">
+        <v>9317596860</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niyati </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>niyati.swami@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>9606139887</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
         <v>10001</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2020-12-10T06:12:52.994Z</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>PWD</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>110123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9317596861</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemant </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Hemant.vadher@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>9441781690</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>110124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9317596862</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanjeev </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>sanjeev.shrivastava@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>8553967572</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>110125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9317596863</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alok </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>alok.tiwari@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>8800932977</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>110126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9317596864</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikhilesh </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>nikhilesh.kumar@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>8600097143</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>110127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9317596865</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandra  </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>chandra.mishra@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>9851646105</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>110128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9317596866</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ankit</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ankit.vaishnav@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>7738710535</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>110129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9317596867</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Mosip Test</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>mosip-test1@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>9876543212</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>110130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9317596868</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Testuser1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>mosip-test2@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>9876543213</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10001</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>110131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9317596869</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Testuser2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>mosip-test3@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>9876543214</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10002</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="J132" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/user_detail.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/user_detail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,106 +434,5949 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>uin</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>mobile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>statusCode</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>regCenterId</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>status_code</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>lastLoginDateTime</t>
+          <t>regcntr_id</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>lastLoginMethod</t>
+          <t>last_login_method</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5402120055</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Megha Tanga</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>hortense.dauenhauer@xyz.com</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>975366148</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>110002</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7314004469</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mahesh Kumar G</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>leonia.bermeo@xyz.com</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>795281431</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7896109326</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Raghav</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>bong.bragan@xyz.com</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>739704695</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110004</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2870381373</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yaswanth</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>homer.molinar@xyz.com</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>725028706</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>110005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7234451333</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mahesh Kumar Panda</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>antony.hughes@xyz.com</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>804319687</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>110006</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3563474484</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anusha</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sunkadaeanusha@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9449170382</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>110007</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5804057178</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MOSIP User 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>leia.white@xyz.com</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>899884346</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>110008</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1823955503</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Idella Houge</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>idella.houge@xyz.com</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>946624002</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>110009</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6028049229</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Shay Vitagliano</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>shay.vitagliano@xyz.com</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>716591396</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>110010</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2685259089</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Balaji</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mazie.negley@xyz.com</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>718961429</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>110011</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3834346151</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Magda Godoy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>magda.godoy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>938380935</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>110012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3493338361</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Himaja</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>anya.adorno@xyz.com</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>911713143</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>110013</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5145284955</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>darby.self@xyz.com</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>859668671</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>110014</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4285838622</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Balamurugan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>crissy.flor@xyz.com</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>971384902</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>110015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3740463764</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bettina Goering</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>bettina.goering@xyz.com</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>876997632</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>10013</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>110016</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6431857131</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dinesh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>hilary.dunklin@xyz.com</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>853451517</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>10013</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>110017</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2638207977</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Kris Rahm</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>kris.rahm@xyz.com</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>723337142</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>10014</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>110018</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6893364288</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Leona</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ferne.hang@xyz.com</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>733802681</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>10014</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>110019</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5251539502</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Arjun</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>leilani.heavener@xyz.com</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>942983448</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>10015</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>110020</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7724013062</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MOSIP User 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>irwin.norwood@xyz.com</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>936463358</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>10015</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>110021</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7316931025</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Magdalena Weber</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>magdalena.weber@xyz.com</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>932122450</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>110022</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9137847236</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tabish Khan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>adrienne.hoffman@xyz.com</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>848488000</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>110023</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8428758532</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Adrienne Mcgee</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>adrienne.mcgee@xyz.com</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>894773246</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>110024</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9804209494</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sreekar</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>amare.coleman@xyz.com</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>956554588</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>110025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7105248214</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Dawson Ibarra</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>dawson.ibarra@xyz.com</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>765455583</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>110026</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9316557128</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lingam</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>elvis.mcmillan@xyz.com</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>884282274</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>110027</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8103486949</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Omsai</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>steve.george@xyz.com</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>971073663</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>110028</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9601932866</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Colton Elliott</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>colton.elliott@xyz.com</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>809908673</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>110029</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9317596765</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>carolyn.rodriguez@xyz.com</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>818876429</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>110030</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9317596768</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>jane.smith@xyz.com</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>818876432</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>110031</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9317596767</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>john.doe@xyz.com</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>818876431</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>110032</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9317596770</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sravan Kalla</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ewan.marsh@xyz.com</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>818876433</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>110033</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9317596771</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nikola Tesla</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nikola.tesla@xyz.com</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>818876434</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>110034</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9317596772</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Graham Bell</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>graham.bell@xyz.com</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>818876435</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>110035</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9317596773</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Albert Miles</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>albert.miles@xyz.com</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>818876436</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>110036</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9317596774</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Krishnan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>krish@mosip.io</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>818876437</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>110037</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9317596775</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sayeri Mishra</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>elvis.ibarra@xyz.com</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>818876438</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>110038</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9317596776</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Rounak Nayak</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>rounak.nayak@mindtree.com</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>8763740607</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>110039</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9317596777</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Girish Yarru</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Girish@xyz.com</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>818876440</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>110040</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9317596778</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Shekhar Suman</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Shekhar@xyz.com</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>818876441</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>110041</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9317596779</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nagalakshmi Nithyanandan</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Nagalakshmi@xyz.com</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>818876442</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>110042</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9317596780</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sowmya Ujjappa Banakar</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sowmya@xyz.com</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>818876443</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>110043</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9317596781</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Horteppa Pujari</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Horteppa@xyz.com</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>818876444</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>110044</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9317596782</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Rishabh Keshari</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Rishabh@xyz.com</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>818876445</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>110045</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9317596783</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Jyoti Prakash Nayak</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Jyoti@xyz.com</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>818876446</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>110046</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9317596784</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mukul Puspam</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Mukul@xyz.com</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>818876447</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>110047</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9317596785</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pranav Kumar</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Pranav@xyz.com</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>818876448</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>110048</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9317596786</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sanjay Shivaji Zende</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sanjay@xyz.com</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>818876449</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>110049</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9317596787</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Monobikash Das</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Monobikash@xyz.com</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>818876450</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>110050</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9317596788</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Riju Pragyna Jain</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Riju@xyz.com</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>818876451</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>110051</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9317596789</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ayush Keer</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ayush@xyz.com</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>818876452</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>110052</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9317596790</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Karthik Ramanan</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Karthik@xyz.com</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>818876453</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>110053</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9317596791</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Anand</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Anand@xyz.com</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>818876454</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>110054</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9317596792</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Technoforte User</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>technoforte@xyz.com</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>818876455</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>110055</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9317596793</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Ranjitha Siddegowda</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ranjitha@xyz.com</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>818876456</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>110056</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9317596794</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Alok Ranjan</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Alok@xyz.com</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>818876457</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>110057</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9317596795</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Sudheer Murthy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sudheer@xyz.com</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>818876458</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>110058</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9317596796</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Taleev</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Taleev@xyz.com</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>818876459</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>110059</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9317596797</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Brahma</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Brahma@xyz.com</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>818876460</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>110060</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9317596798</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rishabh Keshari</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Rishabh@xyz.com</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>818876461</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>110061</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9317596799</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Kiranraj</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kiranraj@xyz.com</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>818876462</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>110062</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9317596800</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Phillipines User 1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>puser1@xyz.com</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>818876463</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>110063</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9317596801</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Phillipines User 2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>puser2@xyz.com</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>818876464</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>110064</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9317596802</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Phillipines User 3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>puser3@xyz.com</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>818876465</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>110065</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9317596803</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Krishnan</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>krishnan@xyz.com</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>818876466</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>110066</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9317596804</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Gururaj 1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Gururaj1@xyz.com</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>818876467</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>110067</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9317596805</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Gururaj 2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Gururaj2@xyz.com</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>818876468</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>110068</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9317596806</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Technoforte User 2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>technoforte2@xyz.com</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>818876469</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>110069</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9317596807</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Yadimala</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Yadimala@xyz.com</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>818876470</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>110070</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9317596808</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>818876471</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>110071</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9317596809</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>818876472</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>110072</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9317596810</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>818876473</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>110073</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9317596811</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>818876474</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>110074</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9317596812</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>818876475</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>110075</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9317596813</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>818876476</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>110076</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9317596814</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>818876477</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>110077</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9317596815</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>818876478</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>110078</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9317596816</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>818876479</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>110079</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9317596817</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>818876480</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>110080</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9317596818</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>818876481</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>110081</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9317596819</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>818876482</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>110082</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9317596820</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>818876483</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>33333</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>110083</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9317596821</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>818876484</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>110084</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9317596822</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>818876485</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>110085</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9317596823</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>818876486</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>110086</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9317596824</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>818876487</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>110087</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9317596825</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>818876488</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>110088</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9317596826</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>818876489</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>110089</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9317596827</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>818876490</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>110090</v>
+      </c>
+      <c r="D91" t="n">
+        <v>9317596828</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>818876491</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>110091</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9317596829</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>818876492</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>110092</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9317596830</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>818876493</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>110093</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9317596831</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>818876494</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>110094</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9317596832</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>818876495</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>110095</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9317596833</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>818876496</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>110096</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9317596834</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>818876497</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>110097</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9317596835</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>818876498</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>110098</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9317596836</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>818876499</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>110099</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9317596837</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>818876500</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>110100</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9317596838</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>818876501</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>110101</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9317596839</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>818876502</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>110102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9317596840</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>818876503</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>110103</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9317596841</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>818876504</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>110104</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9317596842</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>818876505</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>110105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9317596843</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>818876506</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>110106</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9317596844</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>818876507</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>110107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9317596845</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>818876508</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>110108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9317596846</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>818876509</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>110109</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9317596847</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>818876510</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>110110</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9317596848</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>818876511</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>110111</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9317596849</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>818876512</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>110112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9317596850</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>818876513</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>110113</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9317596851</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>818876514</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>110114</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9317596852</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>818876515</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>110115</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9317596853</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>818876516</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>110116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9317596854</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>818876517</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>110117</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9317596855</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Dummy User</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Dummy@xyz.com</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>818876518</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>110118</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9317596856</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Jane.rose@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>9840587089</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>110119</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9317596857</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piyush </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>piyush.singh@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>8277417831</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>110120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9317596858</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suchana </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>suchana.kankonkar@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>9980939623</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>110121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9317596859</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swapna </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>swapna.p@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>9741112380</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>110122</v>
       </c>
-      <c r="B2" t="n">
-        <v>9317596857</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TestUser</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test.user@technoforte.co.in</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>9220289879</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ACT</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="D123" t="n">
+        <v>9317596860</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niyati </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>niyati.swami@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>9606139887</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>10001</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2020-12-10T06:12:52.994Z</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>PWD</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>110123</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9317596861</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemant </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Hemant.vadher@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>9441781690</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>110124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9317596862</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanjeev </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>sanjeev.shrivastava@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>8553967572</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>110125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9317596863</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alok </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>alok.tiwari@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>8800932977</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>110126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9317596864</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikhilesh </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>nikhilesh.kumar@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>8600097143</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>110127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9317596865</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandra  </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>chandra.mishra@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>9851646105</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>110128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9317596866</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Ankit</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ankit.vaishnav@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>7738710535</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>110129</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9317596867</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Mosip Test</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mosip-test1@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>9876543212</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>110130</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9317596868</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Testuser1</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>mosip-test2@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>9876543213</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>110131</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9317596869</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Testuser2</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>mosip-test3@technoforte.co.in</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>9876543214</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>PWD</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
         <v>1</v>
       </c>
     </row>
